--- a/first_test_nodes.xlsx
+++ b/first_test_nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu-my.sharepoint.com/personal/dkydros_ihu365_gr/Documents/ELIDEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{16C3A679-3BE2-43BC-A52B-3A0D21D18EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02986101-0D7A-42F2-BABA-462A9DC6FC0C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{16C3A679-3BE2-43BC-A52B-3A0D21D18EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6C276B-3DC6-4B95-88CC-4BFAECFCD362}"/>
   <bookViews>
-    <workbookView xWindow="12384" yWindow="816" windowWidth="9168" windowHeight="11424" xr2:uid="{15D83EF5-6F65-4862-BA54-5A074BF9B2A4}"/>
+    <workbookView xWindow="10380" yWindow="1428" windowWidth="9168" windowHeight="11424" xr2:uid="{15D83EF5-6F65-4862-BA54-5A074BF9B2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>ranking</t>
+  </si>
+  <si>
+    <t>Polychronidou P</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77729E9-30E6-4BFA-9401-516EE0F29E1D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +677,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
